--- a/NformTester/NformTester/Keywordscripts/600.40.10.10_UserAndGroupDefaultPermissionRightForActions.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.10.10_UserAndGroupDefaultPermissionRightForActions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -3684,7 +3684,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4643,7 +4643,7 @@
   <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
